--- a/static/document/work.xlsx
+++ b/static/document/work.xlsx
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Be responsible for test data analysis, process and upload software development. Product line software development and feature improvement work</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Trip.com Group , China</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Be responsible for tobacco product sales work.Sales data analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hongfujin Precision Electronics(Chengdu)Co.,Ltd , China</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,15 +82,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sofrware Developer(Graduate)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Be responsible for maintenance for the iPad product line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Be responsible for hotel product improvement and analyze hotel sale data. Manage over 100 hotels online sale channel</t>
+    <t>Be responsible for tobacco product sales work.Sales data analysis.Sales management work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be responsible for hotel product improvement and analyze hotel sale data. Manage online sale channel of over 100 hotels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be responsible for equipment maintenance for the iPad product line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be responsible for product test data process system development.Product line software maintenance and program development.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sofrware Developer(intern -&gt; Graduate)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -507,10 +507,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -518,16 +518,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -535,16 +535,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -552,16 +552,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/static/document/work.xlsx
+++ b/static/document/work.xlsx
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>workDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AuCom electronics Ltd , Canterbury</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,11 +90,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Be responsible for product test data process system development.Product line software maintenance and program development.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sofrware Developer(intern -&gt; Graduate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be responsible for product test data process system development.Product line software maintenance and program development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workDescription(separated by .)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -493,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -501,13 +501,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
@@ -518,16 +518,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -535,16 +535,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -552,16 +552,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
